--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="731">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2267,6 +2267,15 @@
   </si>
   <si>
     <t>264</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>415</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3405,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId20"/>
+    <hyperlink ref="A2" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11526,7 +11535,7 @@
         <v>580</v>
       </c>
       <c r="H2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="I2" s="72" t="s">
         <v>346</v>
@@ -11607,7 +11616,7 @@
         <v>580</v>
       </c>
       <c r="H3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>346</v>
@@ -11688,7 +11697,7 @@
         <v>580</v>
       </c>
       <c r="H4" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="I4" s="72" t="s">
         <v>346</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="739">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2276,6 +2276,30 @@
   </si>
   <si>
     <t>415</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>433</t>
   </si>
 </sst>
 </file>
@@ -3405,7 +3429,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId23"/>
+    <hyperlink ref="A2" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11535,7 +11559,7 @@
         <v>580</v>
       </c>
       <c r="H2" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="I2" s="72" t="s">
         <v>346</v>
@@ -11616,7 +11640,7 @@
         <v>580</v>
       </c>
       <c r="H3" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>346</v>
@@ -11697,7 +11721,7 @@
         <v>580</v>
       </c>
       <c r="H4" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="I4" s="72" t="s">
         <v>346</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="742">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2300,6 +2300,15 @@
   </si>
   <si>
     <t>433</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1235</t>
   </si>
 </sst>
 </file>
@@ -3429,7 +3438,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId31"/>
+    <hyperlink ref="A2" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11559,7 +11568,7 @@
         <v>580</v>
       </c>
       <c r="H2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="I2" s="72" t="s">
         <v>346</v>
@@ -11640,7 +11649,7 @@
         <v>580</v>
       </c>
       <c r="H3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>346</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="748">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2309,6 +2309,24 @@
   </si>
   <si>
     <t>1235</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -3438,7 +3456,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId34"/>
+    <hyperlink ref="A2" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11605,7 +11623,7 @@
         <v>720</v>
       </c>
       <c r="U2" t="s">
-        <v>399</v>
+        <v>747</v>
       </c>
       <c r="V2" t="s">
         <v>616</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="758">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2327,6 +2327,36 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3486,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId50"/>
+    <hyperlink ref="A2" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11623,7 +11653,7 @@
         <v>720</v>
       </c>
       <c r="U2" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="V2" t="s">
         <v>616</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="764">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2357,6 +2357,24 @@
   </si>
   <si>
     <t>81</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -3486,7 +3504,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId74"/>
+    <hyperlink ref="A2" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11653,7 +11671,7 @@
         <v>720</v>
       </c>
       <c r="U2" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="V2" t="s">
         <v>616</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="767">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2375,6 +2375,15 @@
   </si>
   <si>
     <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
 </sst>
 </file>
@@ -3504,7 +3513,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId89"/>
+    <hyperlink ref="A2" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11671,7 +11680,7 @@
         <v>720</v>
       </c>
       <c r="U2" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="V2" t="s">
         <v>616</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="774">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2384,6 +2384,27 @@
   </si>
   <si>
     <t>85</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
 </sst>
 </file>
@@ -3513,7 +3534,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId109"/>
+    <hyperlink ref="A2" r:id="rId126"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11680,7 +11701,7 @@
         <v>720</v>
       </c>
       <c r="U2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="V2" t="s">
         <v>616</v>
